--- a/publipostage2/029brtt94/liste_essais_cliniques_identifies_029brtt94.xlsx
+++ b/publipostage2/029brtt94/liste_essais_cliniques_identifies_029brtt94.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>status_label</t>
+          <t>statut_label</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">

--- a/publipostage2/029brtt94/liste_essais_cliniques_identifies_029brtt94.xlsx
+++ b/publipostage2/029brtt94/liste_essais_cliniques_identifies_029brtt94.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,50 +446,55 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>statut_name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>NCTId</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>eudraCT</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>CTIS</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>completion_year</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>clinical_trial_title</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>acronym</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>results_1y</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>results_3y</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>results</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>intervention_type</t>
         </is>
@@ -508,36 +513,41 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>NCT02599584</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Improvement of Team Performance With a Pre-critical Staff Within the Team Prior to Admission of Critical Simulated Patient in High Fidelity Simulation Session for Anesthesiology Resident During Their Education Curriculum</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>Simstaf&amp;perf</t>
         </is>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
       <c r="J2" t="b">
         <v>0</v>
       </c>
       <c r="K2" t="b">
         <v>0</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -556,36 +566,41 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>NCT02470195</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Anesthesiology Education Implementation by Procedural Simulation Workshop for Difficult Airway Management: a Controlled Interregional French Study</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>PROSIDIAIR</t>
         </is>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
       <c r="J3" t="b">
         <v>0</v>
       </c>
       <c r="K3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" t="b">
         <v>1</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -604,36 +619,41 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>NCT02470130</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Effect of a Debriefing Conversational Relaxation on Memorization of Critical Key Points in Resident High Fidelity Simulation Education Program</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>RELAXSIMHF</t>
         </is>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
       <c r="J4" t="b">
         <v>0</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -652,36 +672,41 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>NCT02926599</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>High Fidelity Simulation Performance After a Potential Optimization Training for Anesthesiologist Resident: a Randomized Controlled Trial.</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>TOP</t>
         </is>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
       <c r="J5" t="b">
         <v>0</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -700,36 +725,41 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>NCT03253770</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Use of a Hand-held Digital Cognitive Aid in Simulated Cardiac Arrest.</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>SIMMAX2</t>
         </is>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
       <c r="J6" t="b">
         <v>0</v>
       </c>
       <c r="K6" t="b">
         <v>0</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -748,28 +778,30 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>NCT04352959</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>COVID-19: Nasal and Salivary Detection of the SARS-CoV-2 Virus After Antiviral Mouthrinses: Double-blind, Randomized, Placebo-controlled Clinical Study</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>BBCovid</t>
         </is>
-      </c>
-      <c r="I7" t="b">
-        <v>1</v>
       </c>
       <c r="J7" t="b">
         <v>1</v>
@@ -777,7 +809,10 @@
       <c r="K7" t="b">
         <v>1</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L7" t="b">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -796,36 +831,41 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>NCT04141124</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Effects of Relaxing Breathing Combined With Biofeedback on the Performance and Stress of Residents During a High-fidelity Simulation Session.</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>RETROSIMU</t>
         </is>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
       <c r="J8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="b">
         <v>1</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -844,36 +884,41 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>NCT05136586</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Effects of Two Stress Management Procedures on Performances During Objective Structured Clinical Examination (OSCE) for Medical Students : Relaxing Breathing Combined With Biofeedback or Meditative Stimulation : ECOSTRESS Study</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>ECOSTRESS</t>
         </is>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
       <c r="J9" t="b">
         <v>0</v>
       </c>
       <c r="K9" t="b">
         <v>0</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="L9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -892,32 +937,37 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>NCT05390879</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Influence of Meditation on Stress and Rumination Following Objective Structured Clinical Examination (OSCE)</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="b">
         <v>0</v>
       </c>
       <c r="K10" t="b">
         <v>0</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -936,36 +986,41 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>NCT05628519</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Captain Sonar Impact on Trauma Patient Management</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>CAST2</t>
         </is>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
       <c r="J11" t="b">
         <v>0</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L11" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -984,32 +1039,37 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>NCT05393219</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>Effects of Preventive Physiological and Psychological Interventions on Performances During Objective Structured Clinical Examination (OSCE) for Medical Students: Cardiac Biofeedback, Mindfulness, or Inner Resources Mobilization</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="b">
         <v>0</v>
       </c>
       <c r="K12" t="b">
         <v>0</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1028,36 +1088,41 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>NCT05619081</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>Recovery Napping Protocol for Anesthesiologist Performance</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>R-NAP</t>
         </is>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
       <c r="J13" t="b">
         <v>0</v>
       </c>
       <c r="K13" t="b">
         <v>0</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="L13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -1076,32 +1141,37 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>NCT05380076</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>Effects of Mindfulness, Mobilization of Inner Resources, or Cardiac Biofeedback on Psychophysiological Anticipatory Stress Before OSCE of Medical Students</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="b">
         <v>0</v>
       </c>
       <c r="K14" t="b">
         <v>0</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="L14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>

--- a/publipostage2/029brtt94/liste_essais_cliniques_identifies_029brtt94.xlsx
+++ b/publipostage2/029brtt94/liste_essais_cliniques_identifies_029brtt94.xlsx
@@ -55,19 +55,19 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>⬛</t>
-  </si>
-  <si>
-    <t>🟥</t>
-  </si>
-  <si>
-    <t>🟩</t>
-  </si>
-  <si>
-    <t>🟧</t>
-  </si>
-  <si>
-    <t>noir</t>
+    <t>📘</t>
+  </si>
+  <si>
+    <t>📕</t>
+  </si>
+  <si>
+    <t>📗</t>
+  </si>
+  <si>
+    <t>📙</t>
+  </si>
+  <si>
+    <t>bleu</t>
   </si>
   <si>
     <t>rouge</t>

--- a/publipostage2/029brtt94/liste_essais_cliniques_identifies_029brtt94.xlsx
+++ b/publipostage2/029brtt94/liste_essais_cliniques_identifies_029brtt94.xlsx
@@ -55,16 +55,16 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>📘</t>
-  </si>
-  <si>
-    <t>📕</t>
-  </si>
-  <si>
-    <t>📗</t>
-  </si>
-  <si>
-    <t>📙</t>
+    <t>⚠️</t>
+  </si>
+  <si>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>✅</t>
+  </si>
+  <si>
+    <t>+3</t>
   </si>
   <si>
     <t>bleu</t>

--- a/publipostage2/029brtt94/liste_essais_cliniques_identifies_029brtt94.xlsx
+++ b/publipostage2/029brtt94/liste_essais_cliniques_identifies_029brtt94.xlsx
@@ -67,7 +67,7 @@
     <t>+3</t>
   </si>
   <si>
-    <t>bleu</t>
+    <t>noir</t>
   </si>
   <si>
     <t>rouge</t>
@@ -79,16 +79,16 @@
     <t>orange</t>
   </si>
   <si>
-    <t>pas de résultat ni de publication</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 12 mois</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 36 mois</t>
+    <t>pas de résultat postés ni publiés</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 12 mois</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 36 mois</t>
   </si>
   <si>
     <t>NCT02599584</t>

--- a/publipostage2/029brtt94/liste_essais_cliniques_identifies_029brtt94.xlsx
+++ b/publipostage2/029brtt94/liste_essais_cliniques_identifies_029brtt94.xlsx
@@ -14,14 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="61">
   <si>
     <t>statut</t>
   </si>
   <si>
-    <t>statut_label</t>
-  </si>
-  <si>
     <t>statut_name</t>
   </si>
   <si>
@@ -43,52 +40,31 @@
     <t>acronym</t>
   </si>
   <si>
-    <t>results_1y</t>
-  </si>
-  <si>
-    <t>results_3y</t>
-  </si>
-  <si>
-    <t>results</t>
-  </si>
-  <si>
     <t>intervention_type</t>
   </si>
   <si>
-    <t>⚠️</t>
-  </si>
-  <si>
-    <t>-3</t>
-  </si>
-  <si>
-    <t>✅</t>
-  </si>
-  <si>
-    <t>+3</t>
-  </si>
-  <si>
-    <t>noir</t>
-  </si>
-  <si>
-    <t>rouge</t>
-  </si>
-  <si>
-    <t>vert</t>
-  </si>
-  <si>
-    <t>orange</t>
-  </si>
-  <si>
-    <t>pas de résultat postés ni publiés</t>
-  </si>
-  <si>
-    <t>résultat postés ou publiés</t>
-  </si>
-  <si>
-    <t>résultat postés ou publiés dans les 12 mois</t>
-  </si>
-  <si>
-    <t>résultat postés ou publiés dans les 36 mois</t>
+    <t>4</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>4: pas de résultats postés ni publiés</t>
+  </si>
+  <si>
+    <t>3: résultats postés ou publiés après les 36 mois</t>
+  </si>
+  <si>
+    <t>1: résultats postés ou publiés dans les 12 mois</t>
+  </si>
+  <si>
+    <t>2: résultats postés ou publiés entre 12 et 36 mois</t>
   </si>
   <si>
     <t>NCT02599584</t>
@@ -578,13 +554,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -612,463 +588,295 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2" t="s">
-        <v>56</v>
-      </c>
-      <c r="J2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
+      <c r="F3" t="s">
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="I4" t="s">
         <v>58</v>
       </c>
-      <c r="J4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>28</v>
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I5" t="s">
-        <v>59</v>
-      </c>
-      <c r="J5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" t="s">
-        <v>29</v>
+      <c r="F6" t="s">
+        <v>31</v>
       </c>
       <c r="G6" t="s">
         <v>39</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="I6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" t="b">
-        <v>0</v>
-      </c>
-      <c r="M6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
       <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
       </c>
       <c r="G7" t="s">
         <v>40</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="I7" t="s">
-        <v>61</v>
-      </c>
-      <c r="J7" t="b">
-        <v>1</v>
-      </c>
-      <c r="K7" t="b">
-        <v>1</v>
-      </c>
-      <c r="L7" t="b">
-        <v>1</v>
-      </c>
-      <c r="M7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
       <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" t="s">
-        <v>62</v>
-      </c>
-      <c r="J8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" t="b">
-        <v>1</v>
-      </c>
-      <c r="L8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
+      <c r="F9" t="s">
+        <v>33</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H9" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="I9" t="s">
-        <v>63</v>
-      </c>
-      <c r="J9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L9" t="b">
-        <v>0</v>
-      </c>
-      <c r="M9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
         <v>33</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" t="s">
-        <v>51</v>
-      </c>
-      <c r="J10" t="b">
-        <v>0</v>
-      </c>
-      <c r="K10" t="b">
-        <v>0</v>
-      </c>
-      <c r="L10" t="b">
-        <v>0</v>
-      </c>
-      <c r="M10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>43</v>
+      </c>
+      <c r="I10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" t="s">
         <v>34</v>
       </c>
-      <c r="G11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" t="s">
-        <v>52</v>
-      </c>
-      <c r="I11" t="s">
-        <v>64</v>
-      </c>
-      <c r="J11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K11" t="b">
-        <v>0</v>
-      </c>
-      <c r="L11" t="b">
-        <v>0</v>
-      </c>
-      <c r="M11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" t="s">
-        <v>35</v>
-      </c>
       <c r="G12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12" t="s">
-        <v>53</v>
-      </c>
-      <c r="J12" t="b">
-        <v>0</v>
-      </c>
-      <c r="K12" t="b">
-        <v>0</v>
-      </c>
-      <c r="L12" t="b">
-        <v>0</v>
-      </c>
-      <c r="M12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>45</v>
+      </c>
+      <c r="I12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" t="s">
-        <v>36</v>
+        <v>28</v>
+      </c>
+      <c r="F13" t="s">
+        <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I13" t="s">
-        <v>65</v>
-      </c>
-      <c r="J13" t="b">
-        <v>0</v>
-      </c>
-      <c r="K13" t="b">
-        <v>0</v>
-      </c>
-      <c r="L13" t="b">
-        <v>0</v>
-      </c>
-      <c r="M13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" t="s">
-        <v>37</v>
+        <v>29</v>
+      </c>
+      <c r="F14" t="s">
+        <v>34</v>
       </c>
       <c r="G14" t="s">
-        <v>42</v>
-      </c>
-      <c r="H14" t="s">
-        <v>55</v>
-      </c>
-      <c r="J14" t="b">
-        <v>0</v>
-      </c>
-      <c r="K14" t="b">
-        <v>0</v>
-      </c>
-      <c r="L14" t="b">
-        <v>0</v>
-      </c>
-      <c r="M14" t="s">
-        <v>68</v>
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/publipostage2/029brtt94/liste_essais_cliniques_identifies_029brtt94.xlsx
+++ b/publipostage2/029brtt94/liste_essais_cliniques_identifies_029brtt94.xlsx
@@ -88,12 +88,12 @@
     <t>NCT04141124</t>
   </si>
   <si>
+    <t>NCT05390879</t>
+  </si>
+  <si>
     <t>NCT05136586</t>
   </si>
   <si>
-    <t>NCT05390879</t>
-  </si>
-  <si>
     <t>NCT05628519</t>
   </si>
   <si>
@@ -142,10 +142,10 @@
     <t>Effects of Relaxing Breathing Combined With Biofeedback on the Performance and Stress of Residents During a High-fidelity Simulation Session.</t>
   </si>
   <si>
+    <t>Influence of Meditation on Stress and Rumination Following Objective Structured Clinical Examination (OSCE)</t>
+  </si>
+  <si>
     <t>Effects of Two Stress Management Procedures on Performances During Objective Structured Clinical Examination (OSCE) for Medical Students : Relaxing Breathing Combined With Biofeedback or Meditative Stimulation : ECOSTRESS Study</t>
-  </si>
-  <si>
-    <t>Influence of Meditation on Stress and Rumination Following Objective Structured Clinical Examination (OSCE)</t>
   </si>
   <si>
     <t>Captain Sonar Impact on Trauma Patient Management</t>
@@ -766,9 +766,6 @@
       <c r="G9" t="s">
         <v>42</v>
       </c>
-      <c r="H9" t="s">
-        <v>55</v>
-      </c>
       <c r="I9" t="s">
         <v>60</v>
       </c>
@@ -788,6 +785,9 @@
       </c>
       <c r="G10" t="s">
         <v>43</v>
+      </c>
+      <c r="H10" t="s">
+        <v>55</v>
       </c>
       <c r="I10" t="s">
         <v>60</v>

--- a/publipostage2/029brtt94/liste_essais_cliniques_identifies_029brtt94.xlsx
+++ b/publipostage2/029brtt94/liste_essais_cliniques_identifies_029brtt94.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="65">
   <si>
     <t>statut</t>
   </si>
@@ -55,16 +55,16 @@
     <t>2</t>
   </si>
   <si>
-    <t>4: pas de résultats postés ni publiés</t>
-  </si>
-  <si>
-    <t>3: résultats postés ou publiés après les 36 mois</t>
-  </si>
-  <si>
-    <t>1: résultats postés ou publiés dans les 12 mois</t>
-  </si>
-  <si>
-    <t>2: résultats postés ou publiés entre 12 et 36 mois</t>
+    <t>4 : pas de résultats postés ni publiés</t>
+  </si>
+  <si>
+    <t>3 : résultats postés ou publiés après les 36 mois</t>
+  </si>
+  <si>
+    <t>1 : résultats postés ou publiés dans les 12 mois</t>
+  </si>
+  <si>
+    <t>2 : résultats postés ou publiés entre 12 et 36 mois</t>
   </si>
   <si>
     <t>NCT02599584</t>
@@ -97,13 +97,16 @@
     <t>NCT05628519</t>
   </si>
   <si>
+    <t>NCT05619081</t>
+  </si>
+  <si>
+    <t>NCT05380076</t>
+  </si>
+  <si>
     <t>NCT05393219</t>
   </si>
   <si>
-    <t>NCT05619081</t>
-  </si>
-  <si>
-    <t>NCT05380076</t>
+    <t>NCT06487208</t>
   </si>
   <si>
     <t>2016</t>
@@ -121,6 +124,9 @@
     <t>2023</t>
   </si>
   <si>
+    <t>2024</t>
+  </si>
+  <si>
     <t>Improvement of Team Performance With a Pre-critical Staff Within the Team Prior to Admission of Critical Simulated Patient in High Fidelity Simulation Session for Anesthesiology Resident During Their Education Curriculum</t>
   </si>
   <si>
@@ -151,13 +157,16 @@
     <t>Captain Sonar Impact on Trauma Patient Management</t>
   </si>
   <si>
+    <t>Recovery Napping Protocol for Anesthesiologist Performance</t>
+  </si>
+  <si>
+    <t>Effects of Mindfulness, Mobilization of Inner Resources, or Cardiac Biofeedback on Psychophysiological Anticipatory Stress Before OSCE of Medical Students</t>
+  </si>
+  <si>
     <t>Effects of Preventive Physiological and Psychological Interventions on Performances During Objective Structured Clinical Examination (OSCE) for Medical Students: Cardiac Biofeedback, Mindfulness, or Inner Resources Mobilization</t>
   </si>
   <si>
-    <t>Recovery Napping Protocol for Anesthesiologist Performance</t>
-  </si>
-  <si>
-    <t>Effects of Mindfulness, Mobilization of Inner Resources, or Cardiac Biofeedback on Psychophysiological Anticipatory Stress Before OSCE of Medical Students</t>
+    <t>AnticipaMax: Impact of the Use of a Hand-held Digital Cognitive Aid in Order to Anticipated a Potential Crisis Situation, Measured by a Composite Globale Performance Score, in Anesthesia Resident</t>
   </si>
   <si>
     <t>Simstaf&amp;perf</t>
@@ -188,6 +197,9 @@
   </si>
   <si>
     <t>R-NAP</t>
+  </si>
+  <si>
+    <t>AnticipaMax</t>
   </si>
   <si>
     <t>BEHAVIORAL</t>
@@ -554,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,16 +612,16 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -623,16 +635,16 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -646,16 +658,16 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -669,16 +681,16 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -692,16 +704,16 @@
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -715,16 +727,16 @@
         <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -738,16 +750,16 @@
         <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I8" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -761,13 +773,13 @@
         <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I9" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -781,16 +793,16 @@
         <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I10" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -804,16 +816,16 @@
         <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -827,13 +839,16 @@
         <v>27</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="H12" t="s">
+        <v>60</v>
       </c>
       <c r="I12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -847,16 +862,13 @@
         <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -870,13 +882,36 @@
         <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I14" t="s">
-        <v>60</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I15" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
